--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\TIKiISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DF999-5542-46D9-9062-8082DD356C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E96B5-9EF8-4A9C-840B-14B3DA6D6C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="2712" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="4968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Grupa</t>
   </si>
@@ -94,6 +100,9 @@
   </si>
   <si>
     <t>Czy to K.Krawczyk?</t>
+  </si>
+  <si>
+    <t>Bo to konwersja z Javy jest (i stąd jawne zmienne widoków)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,6 +928,18 @@
       <c r="C25">
         <v>3</v>
       </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -949,6 +970,18 @@
         <v>156219</v>
       </c>
       <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
     </row>

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\TIKiISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E96B5-9EF8-4A9C-840B-14B3DA6D6C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DA7DB-33D3-4EEB-911D-D3814AE5564A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="4968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Grupa</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Bo to konwersja z Javy jest (i stąd jawne zmienne widoków)</t>
+  </si>
+  <si>
+    <t>Troche rozwlekły kod (buttony można było uprościć)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +569,7 @@
         <v>156246</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -586,7 +589,7 @@
         <v>156213</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -606,7 +609,7 @@
         <v>156215</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -626,7 +629,7 @@
         <v>156214</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -646,7 +649,7 @@
         <v>156216</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -666,7 +669,7 @@
         <v>156217</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -686,7 +689,7 @@
         <v>156223</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -706,7 +709,7 @@
         <v>156218</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -726,7 +729,7 @@
         <v>156221</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -746,7 +749,7 @@
         <v>156220</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -926,7 +929,7 @@
         <v>151986</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -943,70 +946,94 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>151999</v>
+        <v>156219</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>152004</v>
+        <v>156212</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>156212</v>
+        <v>156222</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>156219</v>
+        <v>156228</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>156222</v>
+        <v>156235</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>156228</v>
+        <v>151999</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>156235</v>
+        <v>152004</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\TIKiISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DA7DB-33D3-4EEB-911D-D3814AE5564A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DF4BF-881C-499D-9F36-B7B21FCDC3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2280" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>Grupa</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1011,18 @@
       <c r="C29">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
@@ -1018,6 +1030,18 @@
       </c>
       <c r="C30">
         <v>2</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\TIKiISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DF4BF-881C-499D-9F36-B7B21FCDC3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBCB147-F066-4748-A969-CDA55D66D26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10728" yWindow="2520" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Grupa</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Troche rozwlekły kod (buttony można było uprościć)</t>
+  </si>
+  <si>
+    <t>Po terminie :/</t>
   </si>
 </sst>
 </file>
@@ -446,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,6 +1054,18 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
@@ -1058,6 +1073,18 @@
       </c>
       <c r="C32">
         <v>1</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
